--- a/For Database_25_01_22.xlsx
+++ b/For Database_25_01_22.xlsx
@@ -1,40 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\Netology\DataBase_Task_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET_PROJECT\DataBase_Task_3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE555DD4-C465-4F44-9552-58770CE3ECC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="11775"/>
+    <workbookView xWindow="10890" yWindow="3585" windowWidth="28800" windowHeight="15435" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List_1" sheetId="1" r:id="rId1"/>
-    <sheet name="List_1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="List_1" sheetId="4" r:id="rId1"/>
+    <sheet name="List_2" sheetId="3" r:id="rId2"/>
+    <sheet name="List_3" sheetId="5" r:id="rId3"/>
+    <sheet name="List_4" sheetId="12" r:id="rId4"/>
+    <sheet name="List_5" sheetId="7" r:id="rId5"/>
+    <sheet name="List_6" sheetId="8" r:id="rId6"/>
+    <sheet name="List_7" sheetId="9" r:id="rId7"/>
+    <sheet name="List_8" sheetId="10" r:id="rId8"/>
+    <sheet name="List_1 (2)" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -172,13 +171,94 @@
   </si>
   <si>
     <t>My Body Is a Cage</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>sing_id</t>
+  </si>
+  <si>
+    <t>id_genres</t>
+  </si>
+  <si>
+    <t>recording_year</t>
+  </si>
+  <si>
+    <t>alb_id</t>
+  </si>
+  <si>
+    <t>track_id</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>singers_id</t>
+  </si>
+  <si>
+    <t>genres_id</t>
+  </si>
+  <si>
+    <t>id_sin_gen</t>
+  </si>
+  <si>
+    <t>albums_id</t>
+  </si>
+  <si>
+    <t>id_coll</t>
+  </si>
+  <si>
+    <t>tracks_id</t>
+  </si>
+  <si>
+    <t>collections_id</t>
+  </si>
+  <si>
+    <t>id_coltr</t>
+  </si>
+  <si>
+    <t>id_singalb</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Collection1</t>
+  </si>
+  <si>
+    <t>Collection2</t>
+  </si>
+  <si>
+    <t>Collection3</t>
+  </si>
+  <si>
+    <t>Collection4</t>
+  </si>
+  <si>
+    <t>Collection5</t>
+  </si>
+  <si>
+    <t>Collection6</t>
+  </si>
+  <si>
+    <t>Collection7</t>
+  </si>
+  <si>
+    <t>Collection8</t>
+  </si>
+  <si>
+    <t>Сборник с треками</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +273,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -545,60 +632,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB46A99-5489-4C86-A955-54B4D98F13BC}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -608,18 +722,788 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE18BE4-19C6-4273-A507-D5F09E2AEDB4}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE370798-5C2F-4705-88B8-1292254724B4}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>2010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1866CED9-4963-4352-832B-41F4AE8DD344}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>339</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>294</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>145</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>275</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>142</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>380</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>234</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>217</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>284</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>176</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>126</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>297</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>245</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>268</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>373</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC8E07-6409-4DC3-A934-6BA9D6FB30AB}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EF687A-C9F5-4382-993D-7C3A73E35400}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8F7AA1-15BF-4798-B760-7986AB2DA091}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AEA0B1-3D8F-4BD1-83BA-8013F471C9F8}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
     <col min="15" max="15" width="22.85546875" customWidth="1"/>
@@ -670,6 +1554,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -708,6 +1595,9 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
@@ -745,6 +1635,9 @@
       </c>
       <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -784,8 +1677,11 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -822,8 +1718,11 @@
       <c r="B6" t="s">
         <v>28</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -860,8 +1759,11 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
       <c r="E7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -898,6 +1800,9 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
       <c r="H8">
         <v>7</v>
       </c>
@@ -930,6 +1835,9 @@
       <c r="B9" t="s">
         <v>42</v>
       </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
       <c r="H9">
         <v>8</v>
       </c>
@@ -1042,6 +1950,12 @@
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
       <c r="N14">
         <v>13</v>
       </c>
@@ -1056,11 +1970,26 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
       </c>
       <c r="N15">
         <v>14</v>
@@ -1076,11 +2005,26 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>2015</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
       </c>
       <c r="N16">
         <v>15</v>
@@ -1096,11 +2040,26 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>2005</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
       </c>
       <c r="N17">
         <v>16</v>
@@ -1116,11 +2075,26 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18">
+        <v>1995</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
       </c>
       <c r="N18">
         <v>17</v>
@@ -1136,94 +2110,197 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19">
+        <v>2012</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20">
+        <v>2016</v>
+      </c>
+      <c r="I20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>7</v>
       </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>2019</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>5</v>
       </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23">
+        <v>2020</v>
+      </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
         <v>42</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/For Database_25_01_22.xlsx
+++ b/For Database_25_01_22.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET_PROJECT\DataBase_Task_3_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\Netology\DataBase_Task_3\DataBase_Task_3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE555DD4-C465-4F44-9552-58770CE3ECC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="3585" windowWidth="28800" windowHeight="15435" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10890" yWindow="3585" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="List_1" sheetId="4" r:id="rId1"/>
-    <sheet name="List_2" sheetId="3" r:id="rId2"/>
-    <sheet name="List_3" sheetId="5" r:id="rId3"/>
-    <sheet name="List_4" sheetId="12" r:id="rId4"/>
-    <sheet name="List_5" sheetId="7" r:id="rId5"/>
-    <sheet name="List_6" sheetId="8" r:id="rId6"/>
-    <sheet name="List_7" sheetId="9" r:id="rId7"/>
-    <sheet name="List_8" sheetId="10" r:id="rId8"/>
+    <sheet name="singers" sheetId="4" r:id="rId1"/>
+    <sheet name="genres" sheetId="3" r:id="rId2"/>
+    <sheet name="albums" sheetId="5" r:id="rId3"/>
+    <sheet name="tracks" sheetId="12" r:id="rId4"/>
+    <sheet name="collections" sheetId="7" r:id="rId5"/>
+    <sheet name="collectionstracks" sheetId="8" r:id="rId6"/>
+    <sheet name="singersalbums" sheetId="9" r:id="rId7"/>
+    <sheet name="singersgenres" sheetId="10" r:id="rId8"/>
     <sheet name="List_1 (2)" sheetId="2" r:id="rId9"/>
+    <sheet name="tables" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -252,12 +252,39 @@
   </si>
   <si>
     <t>Сборник с треками</t>
+  </si>
+  <si>
+    <t>albums</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>collectionstracks</t>
+  </si>
+  <si>
+    <t>genres</t>
+  </si>
+  <si>
+    <t>singers</t>
+  </si>
+  <si>
+    <t>singersalbums</t>
+  </si>
+  <si>
+    <t>singersgenres</t>
+  </si>
+  <si>
+    <t>tracks</t>
+  </si>
+  <si>
+    <t>tabl_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,7 +659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB46A99-5489-4C86-A955-54B4D98F13BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -721,12 +748,75 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE18BE4-19C6-4273-A507-D5F09E2AEDB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE370798-5C2F-4705-88B8-1292254724B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -935,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1866CED9-4963-4352-832B-41F4AE8DD344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1206,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC8E07-6409-4DC3-A934-6BA9D6FB30AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1235,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EF687A-C9F5-4382-993D-7C3A73E35400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1265,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8F7AA1-15BF-4798-B760-7986AB2DA091}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1296,11 +1386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AEA0B1-3D8F-4BD1-83BA-8013F471C9F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,11 +1580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/For Database_25_01_22.xlsx
+++ b/For Database_25_01_22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\Netology\DataBase_Task_3\DataBase_Task_3_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET_PROJECT\DataBase_Task_3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2107765-8CEA-485F-8D81-15324D26F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="3585" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="5475" yWindow="3705" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="singers" sheetId="4" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -279,12 +280,15 @@
   </si>
   <si>
     <t>tabl_name</t>
+  </si>
+  <si>
+    <t>Track</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -749,11 +753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -886,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1025,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1296,15 +1300,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1319,17 +1324,105 @@
         <v>50</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,10 +1436,318 @@
         <v>61</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1355,11 +1756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,13 +1781,123 @@
         <v>57</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1580,11 +2091,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,6 +2107,7 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="22.85546875" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
@@ -2020,6 +2532,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
       <c r="N13">
         <v>12</v>
       </c>
@@ -2040,11 +2555,14 @@
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-      <c r="I14" t="s">
-        <v>72</v>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
+        <v>82</v>
       </c>
       <c r="N14">
         <v>13</v>
@@ -2072,14 +2590,17 @@
       <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>50</v>
       </c>
-      <c r="I15" t="s">
-        <v>64</v>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
       <c r="N15">
         <v>14</v>
@@ -2107,14 +2628,20 @@
       <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>64</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2015</v>
       </c>
-      <c r="I16" t="s">
-        <v>64</v>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
       </c>
       <c r="N16">
         <v>15</v>
@@ -2142,14 +2669,20 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
         <v>65</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2005</v>
       </c>
-      <c r="I17" t="s">
-        <v>64</v>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
       </c>
       <c r="N17">
         <v>16</v>
@@ -2177,14 +2710,20 @@
       <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
         <v>66</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1995</v>
       </c>
-      <c r="I18" t="s">
-        <v>65</v>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
       </c>
       <c r="N18">
         <v>17</v>
@@ -2212,14 +2751,20 @@
       <c r="E19" t="s">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
         <v>67</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2012</v>
       </c>
-      <c r="I19" t="s">
-        <v>65</v>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -2235,14 +2780,20 @@
       <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
         <v>68</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2016</v>
       </c>
-      <c r="I20" t="s">
-        <v>65</v>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
@@ -2258,11 +2809,20 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
         <v>69</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2018</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -2278,11 +2838,20 @@
       <c r="E22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
         <v>70</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2019</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
@@ -2298,11 +2867,20 @@
       <c r="E23" t="s">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
         <v>71</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2020</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
@@ -2318,6 +2896,12 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25">
@@ -2332,6 +2916,12 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26">
@@ -2346,6 +2936,12 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27">
@@ -2360,6 +2956,12 @@
       <c r="E27" t="s">
         <v>5</v>
       </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28">
@@ -2374,6 +2976,12 @@
       <c r="E28" t="s">
         <v>24</v>
       </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29">
@@ -2387,6 +2995,116 @@
       </c>
       <c r="E29" t="s">
         <v>11</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/For Database_25_01_22.xlsx
+++ b/For Database_25_01_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET_PROJECT\DataBase_Task_3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2107765-8CEA-485F-8D81-15324D26F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57543AF-E76B-4F6C-B12F-C5A41CFEA178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="3705" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="3555" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="singers" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="collectionstracks" sheetId="8" r:id="rId6"/>
     <sheet name="singersalbums" sheetId="9" r:id="rId7"/>
     <sheet name="singersgenres" sheetId="10" r:id="rId8"/>
-    <sheet name="List_1 (2)" sheetId="2" r:id="rId9"/>
+    <sheet name="List_1 (2)" sheetId="2" state="hidden" r:id="rId9"/>
     <sheet name="tables" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -283,6 +283,30 @@
   </si>
   <si>
     <t>Track</t>
+  </si>
+  <si>
+    <t>Collection_1</t>
+  </si>
+  <si>
+    <t>Collection_2</t>
+  </si>
+  <si>
+    <t>Collection_3</t>
+  </si>
+  <si>
+    <t>Collection_4</t>
+  </si>
+  <si>
+    <t>Collection_5</t>
+  </si>
+  <si>
+    <t>Collection_6</t>
+  </si>
+  <si>
+    <t>Collection_7</t>
+  </si>
+  <si>
+    <t>Collection_8</t>
   </si>
 </sst>
 </file>
@@ -756,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1328,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>2015</v>
@@ -1340,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>2005</v>
@@ -1351,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>1995</v>
@@ -1362,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>2012</v>
@@ -1373,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>2016</v>
@@ -1384,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>2018</v>
@@ -1395,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>2019</v>
@@ -1406,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -1421,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
